--- a/backend/fms_core/tests/test_services/templates/Library_QC_v3_9_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Library_QC_v3_9_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B796A9-89AD-EB4D-9B8C-FD1F6BFC2CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF7AF12-02EF-2D42-983D-24096AB242E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33540" yWindow="-2120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Volume measured before removing Volume used</t>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="432">
   <si>
     <t>Library QC Template</t>
   </si>
@@ -1354,13 +1355,16 @@
   </si>
   <si>
     <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>Experiment Run Info Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1372,33 +1376,39 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,6 +1416,13 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1948,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2116,9 @@
       <c r="P8" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -2149,7 +2168,9 @@
       <c r="P9" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
@@ -2199,7 +2220,9 @@
       <c r="P10" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -2249,7 +2272,9 @@
       <c r="P11" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
@@ -2299,7 +2324,9 @@
       <c r="P12" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
@@ -2349,7 +2376,9 @@
       <c r="P13" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="18" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
